--- a/成績管理.xlsx
+++ b/成績管理.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="18">
   <si>
     <t>クラウド</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>ロボットプログラミング</t>
+  </si>
+  <si>
+    <t>テストデータランダム生成用</t>
+  </si>
+  <si>
+    <t>RANDBETWEEN(0, 100)</t>
+  </si>
+  <si>
+    <t>RANDBETWEEN(1, 150)</t>
   </si>
   <si>
     <t>web制作</t>
@@ -1687,13 +1696,20 @@
     <col customWidth="1" min="3" max="3" width="9.57"/>
     <col customWidth="1" min="4" max="4" width="11.57"/>
     <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="22.57"/>
+    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="21.14"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -1708,6 +1724,12 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
@@ -1716,11 +1738,19 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I24" si="1">RANDBETWEEN(0, 100)</f>
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K24" si="2">RANDBETWEEN(1, 150)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -1730,11 +1760,19 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -1744,11 +1782,19 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>137</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -1758,11 +1804,19 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -1772,11 +1826,19 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -1786,11 +1848,19 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50.0</v>
+      <c r="D8" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
@@ -1800,11 +1870,19 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>109.0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -1814,11 +1892,19 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.0</v>
+      <c r="D10" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>101.0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -1828,11 +1914,19 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>88.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
@@ -1842,11 +1936,19 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="D12" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
@@ -1856,11 +1958,19 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>116.0</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>127</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
@@ -1870,11 +1980,19 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -1884,11 +2002,19 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>131</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
@@ -1898,11 +2024,19 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>92.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
@@ -1912,11 +2046,19 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
@@ -1926,11 +2068,19 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>89.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>118.0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>127</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
@@ -1940,11 +2090,19 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>141.0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -1954,11 +2112,19 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>94.0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
@@ -1968,11 +2134,19 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
@@ -1982,11 +2156,19 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
+      <c r="D22" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -1996,11 +2178,19 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
@@ -2010,11 +2200,19 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
@@ -3013,7 +3211,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -3037,11 +3235,11 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>125.0</v>
       </c>
     </row>
     <row r="4">
@@ -3051,11 +3249,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>148.0</v>
       </c>
     </row>
     <row r="5">
@@ -3065,11 +3263,11 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>67.0</v>
       </c>
     </row>
     <row r="6">
@@ -3079,11 +3277,11 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>97.0</v>
       </c>
     </row>
     <row r="7">
@@ -3093,11 +3291,11 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>87.0</v>
       </c>
     </row>
     <row r="8">
@@ -3107,11 +3305,11 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50.0</v>
+      <c r="D8" s="2">
+        <v>92.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>127.0</v>
       </c>
     </row>
     <row r="9">
@@ -3121,11 +3319,11 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>99.0</v>
       </c>
     </row>
     <row r="10">
@@ -3135,11 +3333,11 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.0</v>
+      <c r="D10" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>104.0</v>
       </c>
     </row>
     <row r="11">
@@ -3149,11 +3347,11 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
@@ -3163,11 +3361,11 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="D12" s="2">
+        <v>92.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>59.0</v>
       </c>
     </row>
     <row r="13">
@@ -3177,11 +3375,11 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>51.0</v>
       </c>
     </row>
     <row r="14">
@@ -3191,11 +3389,11 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
@@ -3205,11 +3403,11 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>39.0</v>
       </c>
     </row>
     <row r="16">
@@ -3219,11 +3417,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>124.0</v>
       </c>
     </row>
     <row r="17">
@@ -3233,11 +3431,11 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
@@ -3247,11 +3445,11 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>145.0</v>
       </c>
     </row>
     <row r="19">
@@ -3261,11 +3459,11 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>132.0</v>
       </c>
     </row>
     <row r="20">
@@ -3275,11 +3473,11 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -3289,11 +3487,11 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>149.0</v>
       </c>
     </row>
     <row r="22">
@@ -3303,11 +3501,11 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
+      <c r="D22" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>123.0</v>
       </c>
     </row>
     <row r="23">
@@ -3317,11 +3515,11 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -3331,11 +3529,11 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3553,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -3379,11 +3577,11 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120.0</v>
       </c>
     </row>
     <row r="4">
@@ -3393,11 +3591,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
@@ -3407,11 +3605,11 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>98.0</v>
       </c>
     </row>
     <row r="6">
@@ -3421,11 +3619,11 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -3435,11 +3633,11 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>92.0</v>
       </c>
     </row>
     <row r="8">
@@ -3449,11 +3647,11 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50.0</v>
+      <c r="D8" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>130.0</v>
       </c>
     </row>
     <row r="9">
@@ -3463,11 +3661,11 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49.0</v>
       </c>
     </row>
     <row r="10">
@@ -3477,11 +3675,11 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.0</v>
+      <c r="D10" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32.0</v>
       </c>
     </row>
     <row r="11">
@@ -3491,11 +3689,11 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>78.0</v>
       </c>
     </row>
     <row r="12">
@@ -3505,11 +3703,11 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>61.0</v>
       </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="E12" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -3519,11 +3717,11 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
@@ -3533,11 +3731,11 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -3547,11 +3745,11 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>147.0</v>
       </c>
     </row>
     <row r="16">
@@ -3561,11 +3759,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
@@ -3575,11 +3773,11 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>143.0</v>
       </c>
     </row>
     <row r="18">
@@ -3589,11 +3787,11 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
@@ -3603,11 +3801,11 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>63.0</v>
       </c>
     </row>
     <row r="20">
@@ -3617,11 +3815,11 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>127.0</v>
       </c>
     </row>
     <row r="21">
@@ -3631,11 +3829,11 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>72.0</v>
       </c>
     </row>
     <row r="22">
@@ -3645,11 +3843,11 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E22" s="2">
         <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
       </c>
     </row>
     <row r="23">
@@ -3659,11 +3857,11 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>130.0</v>
       </c>
     </row>
     <row r="24">
@@ -3673,11 +3871,11 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>42.0</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -3721,11 +3919,11 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>59.0</v>
       </c>
     </row>
     <row r="4">
@@ -3735,11 +3933,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>88.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
@@ -3749,11 +3947,11 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>134.0</v>
       </c>
     </row>
     <row r="6">
@@ -3763,11 +3961,11 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>123.0</v>
       </c>
     </row>
     <row r="7">
@@ -3777,11 +3975,11 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
@@ -3791,11 +3989,11 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50.0</v>
+      <c r="D8" s="2">
+        <v>86.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>63.0</v>
       </c>
     </row>
     <row r="9">
@@ -3805,11 +4003,11 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="10">
@@ -3819,11 +4017,11 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.0</v>
+      <c r="D10" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>48.0</v>
       </c>
     </row>
     <row r="11">
@@ -3833,11 +4031,11 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>141.0</v>
       </c>
     </row>
     <row r="12">
@@ -3847,11 +4045,11 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="D12" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
@@ -3861,11 +4059,11 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>70.0</v>
       </c>
     </row>
     <row r="14">
@@ -3875,11 +4073,11 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>96.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>131.0</v>
       </c>
     </row>
     <row r="15">
@@ -3889,11 +4087,11 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
@@ -3903,11 +4101,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>62.0</v>
       </c>
     </row>
     <row r="17">
@@ -3917,11 +4115,11 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36.0</v>
       </c>
     </row>
     <row r="18">
@@ -3931,11 +4129,11 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
@@ -3945,11 +4143,11 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>39.0</v>
       </c>
     </row>
     <row r="20">
@@ -3959,11 +4157,11 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -3973,11 +4171,11 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>109.0</v>
       </c>
     </row>
     <row r="22">
@@ -3987,11 +4185,11 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
+      <c r="D22" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>131.0</v>
       </c>
     </row>
     <row r="23">
@@ -4001,11 +4199,11 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>17.0</v>
       </c>
     </row>
     <row r="24">
@@ -4015,11 +4213,11 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -4044,7 +4242,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -4068,11 +4266,11 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>34.0</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -4082,11 +4280,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>87.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -4096,11 +4294,11 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>143.0</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -4110,11 +4308,11 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -4124,11 +4322,11 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100.0</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -4138,10 +4336,10 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E8" s="2">
         <v>50.0</v>
       </c>
     </row>
@@ -4152,11 +4350,11 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>97.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25.0</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -4166,11 +4364,11 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.0</v>
+      <c r="D10" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>85.0</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -4180,11 +4378,11 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
@@ -4194,11 +4392,11 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="D12" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>129.0</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
@@ -4208,11 +4406,11 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>68.0</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
@@ -4222,11 +4420,11 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>91.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>116.0</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -4236,11 +4434,11 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>88.0</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
@@ -4250,11 +4448,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.0</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
@@ -4264,11 +4462,11 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>39.0</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
@@ -4278,11 +4476,11 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>98.0</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
@@ -4292,11 +4490,11 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>49.0</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -4306,11 +4504,11 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>112.0</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
@@ -4320,11 +4518,11 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>30.0</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
@@ -4334,11 +4532,11 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
+      <c r="D22" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -4348,11 +4546,11 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>92.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>51.0</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
@@ -4362,11 +4560,11 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>32.0</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
@@ -5365,7 +5563,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -5389,11 +5587,11 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.0</v>
+      <c r="D3" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>113.0</v>
       </c>
     </row>
     <row r="4">
@@ -5403,11 +5601,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15.0</v>
+      <c r="D4" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>147.0</v>
       </c>
     </row>
     <row r="5">
@@ -5417,11 +5615,11 @@
       <c r="C5" s="1">
         <v>3.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.0</v>
+      <c r="D5" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>128.0</v>
       </c>
     </row>
     <row r="6">
@@ -5431,11 +5629,11 @@
       <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41.0</v>
+      <c r="D6" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>62.0</v>
       </c>
     </row>
     <row r="7">
@@ -5445,11 +5643,11 @@
       <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.0</v>
+      <c r="D7" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -5459,11 +5657,11 @@
       <c r="C8" s="1">
         <v>6.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50.0</v>
+      <c r="D8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>107.0</v>
       </c>
     </row>
     <row r="9">
@@ -5473,11 +5671,11 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50.0</v>
+      <c r="D9" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
@@ -5487,10 +5685,10 @@
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E10" s="2">
         <v>43.0</v>
       </c>
     </row>
@@ -5501,11 +5699,11 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>29.0</v>
+      <c r="D11" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>97.0</v>
       </c>
     </row>
     <row r="12">
@@ -5515,11 +5713,11 @@
       <c r="C12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19.0</v>
+      <c r="D12" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>107.0</v>
       </c>
     </row>
     <row r="13">
@@ -5529,11 +5727,11 @@
       <c r="C13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.0</v>
+      <c r="D13" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>125.0</v>
       </c>
     </row>
     <row r="14">
@@ -5543,11 +5741,11 @@
       <c r="C14" s="1">
         <v>6.0</v>
       </c>
-      <c r="D14" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43.0</v>
+      <c r="D14" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -5557,11 +5755,11 @@
       <c r="C15" s="1">
         <v>1.0</v>
       </c>
-      <c r="D15" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20.0</v>
+      <c r="D15" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>115.0</v>
       </c>
     </row>
     <row r="16">
@@ -5571,11 +5769,11 @@
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.0</v>
+      <c r="D16" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
@@ -5585,11 +5783,11 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>33.0</v>
+      <c r="D17" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40.0</v>
       </c>
     </row>
     <row r="18">
@@ -5599,11 +5797,11 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.0</v>
+      <c r="D18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>147.0</v>
       </c>
     </row>
     <row r="19">
@@ -5613,11 +5811,11 @@
       <c r="C19" s="1">
         <v>5.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23.0</v>
+      <c r="D19" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -5627,11 +5825,11 @@
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
-      <c r="D20" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45.0</v>
+      <c r="D20" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>73.0</v>
       </c>
     </row>
     <row r="21">
@@ -5641,11 +5839,11 @@
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18.0</v>
+      <c r="D21" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>143.0</v>
       </c>
     </row>
     <row r="22">
@@ -5655,11 +5853,11 @@
       <c r="C22" s="1">
         <v>3.0</v>
       </c>
-      <c r="D22" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43.0</v>
+      <c r="D22" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>116.0</v>
       </c>
     </row>
     <row r="23">
@@ -5669,11 +5867,11 @@
       <c r="C23" s="1">
         <v>4.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>29.0</v>
+      <c r="D23" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>76.0</v>
       </c>
     </row>
     <row r="24">
@@ -5683,11 +5881,11 @@
       <c r="C24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19.0</v>
+      <c r="D24" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>107.0</v>
       </c>
     </row>
   </sheetData>
